--- a/dataset_details.xlsx
+++ b/dataset_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="10480"/>
+    <workbookView windowWidth="16850" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Size(Number of Transactions)</t>
   </si>
   <si>
-    <t>Responsible Person</t>
-  </si>
-  <si>
     <t>Malware</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>11,555KB</t>
   </si>
   <si>
-    <t>Jinjin</t>
-  </si>
-  <si>
     <t>Android</t>
   </si>
   <si>
@@ -100,7 +94,7 @@
     <t>5,832,181KB</t>
   </si>
   <si>
-    <t>iot_23</t>
+    <t>IoT-23</t>
   </si>
   <si>
     <t>https://www.kaggle.com/datasets/engraqeel/iot23preprocesseddata</t>
@@ -1067,23 +1061,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27.3909090909091" customWidth="1"/>
     <col min="3" max="3" width="30.1454545454545" customWidth="1"/>
     <col min="4" max="4" width="17.1727272727273" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6818181818182" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:6">
+    <row r="1" ht="28" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1099,128 +1092,107 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" ht="84" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="84" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>138047</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" ht="56" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="56" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>15036</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" ht="28" spans="1:6">
+    <row r="4" ht="28" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>58058</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" ht="28" spans="1:6">
+    <row r="5" ht="28" spans="1:5">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" ht="42" spans="1:6">
+    <row r="6" ht="42" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>6046623</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="7" ht="28" spans="1:6">
+    <row r="7" ht="28" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
